--- a/sources/Cenzura/Cenzura popravki.xlsx
+++ b/sources/Cenzura/Cenzura popravki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katjamihurko/Documents/cenzura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\cenzura\sources\Cenzura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4032F8A-035C-A24D-BD45-1A29F5CF7491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE847A1-A2CD-4750-8104-B04CFCF418C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="540" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{6E90B0DB-317E-0C4E-AE7B-40B40B4CFFD6}"/>
+    <workbookView minimized="1" xWindow="1512" yWindow="14052" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{6E90B0DB-317E-0C4E-AE7B-40B40B4CFFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -255,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,14 +313,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,11 +635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78501B11-AA9E-6F41-B9D8-F2B00C10D4F9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -649,16 +649,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3733FE7-FAD6-FC48-B0C7-366715BC938F}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -753,8 +753,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -763,7 +763,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -783,8 +783,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -794,8 +794,8 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -805,8 +805,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -816,7 +816,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -895,7 +895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -903,7 +903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -923,7 +923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -963,7 +963,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
